--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_resonant.xlsx
@@ -1109,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693397756226154E-11</v>
+        <v>-8.693027948259952E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464775</v>
+        <v>0.9526279474464779</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.9526279821172761</v>
       </c>
       <c r="Q3">
-        <v>8.709502779460742E-08</v>
+        <v>8.709502045886302E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128962</v>
+        <v>179.9999999128961</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777265</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860253</v>
       </c>
       <c r="Q4">
-        <v>5.191990271699881E-07</v>
+        <v>5.19199005433999E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994807922</v>
+        <v>179.9999994807921</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027254</v>
+        <v>0.952627936102726</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610254</v>
+        <v>0.9526279934610249</v>
       </c>
       <c r="Q5">
-        <v>4.282296728285585E-07</v>
+        <v>4.282296614309587E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.952627931565225</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997998525</v>
+        <v>0.9526279979985243</v>
       </c>
       <c r="Q6">
-        <v>5.646835317112115E-07</v>
+        <v>5.646835240875024E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353076</v>
+        <v>179.9999994353075</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839744</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797749</v>
+        <v>0.952628001779774</v>
       </c>
       <c r="Q7">
-        <v>6.783950760030588E-07</v>
+        <v>6.783950798783369E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277245</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360249</v>
+        <v>0.9526280025360241</v>
       </c>
       <c r="Q8">
-        <v>7.011373824092594E-07</v>
+        <v>7.011373862765151E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.952627925515224</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485248</v>
+        <v>0.9526280040485241</v>
       </c>
       <c r="Q9">
-        <v>7.466220029339034E-07</v>
+        <v>7.466220029166191E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992533691</v>
+        <v>179.999999253369</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027233</v>
+        <v>0.9526279240027239</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610248</v>
+        <v>0.9526280055610241</v>
       </c>
       <c r="Q10">
-        <v>7.921066130646913E-07</v>
+        <v>7.921066130247228E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078845</v>
+        <v>179.9999992078844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464733</v>
+        <v>0.9526279232464737</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172748</v>
+        <v>0.9526280063172744</v>
       </c>
       <c r="Q11">
-        <v>8.148489214219783E-07</v>
+        <v>8.148489175187696E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851422</v>
+        <v>179.9999991851421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q12">
-        <v>1.553219760566072E-07</v>
+        <v>1.553219336921948E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777271</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q13">
-        <v>1.55321947923508E-07</v>
+        <v>1.553219367018397E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089776</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547764</v>
+        <v>0.9526279866547759</v>
       </c>
       <c r="Q14">
-        <v>2.235489126848419E-07</v>
+        <v>2.235489083179346E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964764</v>
+        <v>0.9526279413964769</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627988167276</v>
+        <v>0.9526279881672756</v>
       </c>
       <c r="Q15">
-        <v>2.690335060546892E-07</v>
+        <v>2.690334947530773E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309577</v>
+        <v>179.9999997309576</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297761</v>
       </c>
       <c r="Q16">
-        <v>1.325796687464597E-07</v>
+        <v>1.32579622534852E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297763</v>
       </c>
       <c r="Q17">
-        <v>1.325796367581429E-07</v>
+        <v>1.325796293997149E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277265</v>
+        <v>0.952627939127727</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360263</v>
+        <v>0.9526279904360256</v>
       </c>
       <c r="Q18">
-        <v>3.372604975891365E-07</v>
+        <v>3.372604822855016E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027268</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610261</v>
+        <v>0.9526279934610254</v>
       </c>
       <c r="Q19">
-        <v>4.282297663277533E-07</v>
+        <v>4.282297367140995E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339766</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297761</v>
+        <v>0.9526279957297753</v>
       </c>
       <c r="Q20">
-        <v>4.964567210526534E-07</v>
+        <v>4.964566907038144E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995035345</v>
+        <v>179.9999995035344</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777265</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860253</v>
       </c>
       <c r="Q21">
-        <v>5.191990348804238E-07</v>
+        <v>5.191990006683444E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>1.084507398100258</v>
       </c>
       <c r="Q8">
-        <v>29.14059842603804</v>
+        <v>29.14059842603803</v>
       </c>
       <c r="R8">
         <v>-91.10214734879824</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764509</v>
+        <v>29.14059842764508</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620757</v>
+        <v>1.073936237620756</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -3164,7 +3164,7 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.07393623789229</v>
+        <v>1.073936237892289</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
@@ -3631,13 +3631,13 @@
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.102503198711541</v>
+        <v>1.10250319871154</v>
       </c>
       <c r="O10">
         <v>1.073936237604858</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4865,19 +4865,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -4892,7 +4892,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -4907,13 +4907,13 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.720002851666875E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640275</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.659297934208763E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162329124967327E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5075,22 +5075,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515291</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179626</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.415718277338348E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265303</v>
+        <v>0.8660253737265299</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563375097551E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890311</v>
+        <v>0.8660253702890306</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804599</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889662068477E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.999998778102</v>
+        <v>179.9999987781019</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015311</v>
+        <v>0.8660253696015306</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679602</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554914025983E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.866025368226531</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429594</v>
+        <v>0.8660254393429598</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885439478734E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5370,16 +5370,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515318</v>
+        <v>0.8660253668515312</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179597</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.440215958929147E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640315</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054596</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881223868736E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161105</v>
+        <v>179.9999985161104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015279</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679647</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.17588759866758E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,22 +5547,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015278</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679648</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.17588757960292E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5606,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.866025384039028</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304641</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485845518168823E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.8660253826640283</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.359150310603329E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804647</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739235011784167E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890282</v>
+        <v>0.8660253867890277</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739235035126906E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679634</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.66910845304254E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5901,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515289</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179628</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415718830840941E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,22 +5960,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890295</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804622</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.725676510098242E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.8660254324679622</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.162329024127074E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
   </sheetData>
@@ -6117,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -6144,7 +6144,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -6159,13 +6159,13 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.720002851666875E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640275</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.659297934208763E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162329124967327E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6327,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515291</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179626</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.415718277338348E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265303</v>
+        <v>0.8660253737265299</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563375097551E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890311</v>
+        <v>0.8660253702890306</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804599</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889662068477E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.999998778102</v>
+        <v>179.9999987781019</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015311</v>
+        <v>0.8660253696015306</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679602</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554914025983E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.866025368226531</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429594</v>
+        <v>0.8660254393429598</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885439478734E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6622,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515318</v>
+        <v>0.8660253668515312</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179597</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.440215958929147E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640315</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054596</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881223868736E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161105</v>
+        <v>179.9999985161104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015279</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679647</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.17588759866758E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,22 +6799,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015278</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679648</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.17588757960292E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.866025384039028</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304641</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485845518168823E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.8660253826640283</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.359150310603329E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804647</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739235011784167E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890282</v>
+        <v>0.8660253867890277</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739235035126906E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,22 +7094,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679634</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.66910845304254E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515289</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179628</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415718830840941E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,22 +7212,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890295</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804622</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.725676510098242E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.8660254324679622</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.162329024127074E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +7396,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -7523,19 +7523,19 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7588,7 +7588,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -7644,7 +7644,7 @@
         <v>0.9731342572792639</v>
       </c>
       <c r="P6">
-        <v>0.9840663104380105</v>
+        <v>0.9840663104380106</v>
       </c>
       <c r="Q6">
         <v>29.02648253839819</v>
@@ -7703,13 +7703,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879738</v>
+        <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7762,7 +7762,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179663</v>
+        <v>0.9840663106179662</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -7818,16 +7818,16 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
-        <v>29.02648254695741</v>
+        <v>29.02648254695742</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7883,7 +7883,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909723</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -7939,13 +7939,13 @@
         <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.24839353657991</v>
+        <v>-91.2483935365799</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -8057,7 +8057,7 @@
         <v>0.9731342571857984</v>
       </c>
       <c r="P13">
-        <v>0.9840663098981429</v>
+        <v>0.984066309898143</v>
       </c>
       <c r="Q13">
         <v>29.02648251913994</v>
@@ -8113,13 +8113,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881208</v>
+        <v>0.9840663099881211</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8231,19 +8231,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8290,19 +8290,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8349,16 +8349,16 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273385</v>
+        <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740857</v>
+        <v>-91.24839361740855</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -8408,13 +8408,13 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481086</v>
+        <v>0.9731342572481088</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -8467,13 +8467,13 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518848</v>
+        <v>29.02648253518849</v>
       </c>
       <c r="R20">
         <v>-91.24839359046568</v>
@@ -8526,19 +8526,19 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -8648,7 +8648,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -8775,19 +8775,19 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8840,7 +8840,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -8896,7 +8896,7 @@
         <v>0.9731342572792639</v>
       </c>
       <c r="P6">
-        <v>0.9840663104380105</v>
+        <v>0.9840663104380106</v>
       </c>
       <c r="Q6">
         <v>29.02648253839819</v>
@@ -8955,13 +8955,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879738</v>
+        <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9014,7 +9014,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179663</v>
+        <v>0.9840663106179662</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -9070,16 +9070,16 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
-        <v>29.02648254695741</v>
+        <v>29.02648254695742</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9135,7 +9135,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909723</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -9191,13 +9191,13 @@
         <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.24839353657991</v>
+        <v>-91.2483935365799</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -9309,7 +9309,7 @@
         <v>0.9731342571857984</v>
       </c>
       <c r="P13">
-        <v>0.9840663098981429</v>
+        <v>0.984066309898143</v>
       </c>
       <c r="Q13">
         <v>29.02648251913994</v>
@@ -9365,13 +9365,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881208</v>
+        <v>0.9840663099881211</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9483,19 +9483,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9542,19 +9542,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9601,16 +9601,16 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273385</v>
+        <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740857</v>
+        <v>-91.24839361740855</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -9660,13 +9660,13 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481086</v>
+        <v>0.9731342572481088</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -9719,13 +9719,13 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518848</v>
+        <v>29.02648253518849</v>
       </c>
       <c r="R20">
         <v>-91.24839359046568</v>
@@ -9778,19 +9778,19 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -9909,7 +9909,7 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664723</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061765</v>
+        <v>60.00000000061768</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112943</v>
+        <v>0.6350853273112937</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114501</v>
+        <v>0.6350852941114498</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762056</v>
+        <v>60.00000073762065</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>120.000000991656</v>
+        <v>120.0000009916559</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279443</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906008</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789045</v>
+        <v>60.00000083789085</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.000002388238</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419297015</v>
+        <v>0.635085341929701</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.63508528604236</v>
+        <v>0.6350852860423599</v>
       </c>
       <c r="Q5">
-        <v>60.0000008167812</v>
+        <v>60.0000008167813</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
-        <v>120.0000020942208</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770644</v>
+        <v>0.6350853477770638</v>
       </c>
       <c r="O6">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147241</v>
+        <v>0.6350852828147237</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844548</v>
+        <v>60.00000084844559</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S6">
-        <v>120.0000025352467</v>
+        <v>120.0000025352466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.635085352649867</v>
+        <v>0.6350853526498665</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250272</v>
+        <v>0.635085280125027</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483237</v>
+        <v>60.00000087483247</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S7">
-        <v>120.0000029027683</v>
+        <v>120.0000029027682</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,19 +10281,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244274</v>
+        <v>0.635085353624427</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870878</v>
+        <v>0.6350852795870874</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010975</v>
+        <v>60.00000088010985</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S8">
         <v>120.0000029762726</v>
@@ -10343,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735483</v>
+        <v>0.6350853555735479</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112092</v>
+        <v>0.6350852785112089</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066452</v>
+        <v>60.00000089066462</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S9">
         <v>120.0000031232812</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226691</v>
+        <v>0.6350853575226686</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353304</v>
+        <v>0.6350852774353301</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121931</v>
+        <v>60.00000090121939</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S10">
-        <v>120.0000032702899</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972296</v>
+        <v>0.6350853584972291</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973908</v>
+        <v>0.6350852768973906</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649672</v>
+        <v>60.0000009064968</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S11">
-        <v>120.0000033437942</v>
+        <v>120.0000033437941</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,16 +10529,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349755</v>
+        <v>0.635085330234975</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976312</v>
+        <v>0.6350852924976311</v>
       </c>
       <c r="Q12">
-        <v>60.0000007534528</v>
+        <v>60.00000075345286</v>
       </c>
       <c r="R12">
         <v>-89.99999999999572</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349754</v>
+        <v>0.6350853302349749</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976316</v>
+        <v>0.6350852924976311</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345277</v>
+        <v>60.00000075345286</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>120.0000012121689</v>
+        <v>120.0000012121688</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586576</v>
+        <v>0.6350853331586571</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838145</v>
+        <v>0.6350852908838136</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928473</v>
+        <v>60.0000007692849</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335107778</v>
+        <v>0.6350853351077776</v>
       </c>
       <c r="O15">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079354</v>
+        <v>0.6350852898079352</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983957</v>
+        <v>60.00000077983966</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S15">
         <v>120.0000015796905</v>
@@ -10777,19 +10777,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604149</v>
+        <v>0.6350853292604146</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.635085293035571</v>
+        <v>0.6350852930355708</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817538</v>
+        <v>60.00000074817545</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
         <v>120.0000011386646</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604151</v>
+        <v>0.6350853292604146</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355713</v>
+        <v>0.6350852930355708</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817545</v>
       </c>
       <c r="R17">
         <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>120.0000011386646</v>
+        <v>120.0000011386645</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314603</v>
+        <v>0.6350853380314598</v>
       </c>
       <c r="O18">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941182</v>
+        <v>0.6350852881941166</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567153</v>
+        <v>60.00000079567179</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002034</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297027</v>
+        <v>0.6350853419297021</v>
       </c>
       <c r="O19">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.635085286042361</v>
+        <v>0.6350852860423587</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678098</v>
+        <v>60.00000081678132</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533842</v>
+        <v>0.6350853448533839</v>
       </c>
       <c r="O20">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285431</v>
+        <v>0.6350852844285404</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261308</v>
+        <v>60.00000083261346</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147337</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279443</v>
       </c>
       <c r="O21">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906008</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789045</v>
+        <v>60.00000083789084</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.000002388238</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391564</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412838</v>
+        <v>333.3333522412837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>0.01094540887219868</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
         <v>0.01094540888868895</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674484</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664725</v>
+        <v>0.6350853099664726</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585755</v>
+        <v>0.6350853098585756</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061768</v>
+        <v>60.00000000061765</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11242,7 +11242,7 @@
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372386</v>
+        <v>0.6350853281372388</v>
       </c>
       <c r="O3">
         <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615861</v>
+        <v>0.6350852933615855</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271611</v>
       </c>
       <c r="R3">
         <v>-89.99999999999575</v>
       </c>
       <c r="S3">
-        <v>120.0000010386398</v>
+        <v>120.0000010386397</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538898</v>
       </c>
       <c r="O4">
         <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407371</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298594</v>
+        <v>60.00000087298621</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352219</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,16 +11410,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556459</v>
+        <v>0.6350853427556461</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.635085285292496</v>
+        <v>0.6350852852924954</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187671</v>
+        <v>60.00000085187677</v>
       </c>
       <c r="R5">
         <v>-89.99999999999571</v>
@@ -11472,16 +11472,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030089</v>
+        <v>0.6350853486030091</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648599</v>
+        <v>0.6350852820648593</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354098</v>
+        <v>60.00000088354103</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
@@ -11534,16 +11534,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758114</v>
+        <v>0.6350853534758116</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751631</v>
+        <v>0.6350852793751625</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992787</v>
+        <v>60.00000090992792</v>
       </c>
       <c r="R7">
         <v>-89.99999999999569</v>
@@ -11596,16 +11596,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635085354450372</v>
+        <v>0.6350853544503721</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372235</v>
+        <v>0.6350852788372231</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520525</v>
+        <v>60.0000009152053</v>
       </c>
       <c r="R8">
         <v>-89.99999999999569</v>
@@ -11658,19 +11658,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994929</v>
+        <v>0.635085356399493</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613452</v>
+        <v>0.6350852777613445</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576001</v>
+        <v>60.00000092576006</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S9">
         <v>120.000003170265</v>
@@ -11726,13 +11726,13 @@
         <v>1.100000023884847</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854664</v>
+        <v>0.6350852766854658</v>
       </c>
       <c r="Q10">
-        <v>60.0000009363148</v>
+        <v>60.00000093631485</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S10">
         <v>120.0000033172736</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231741</v>
+        <v>0.6350853593231742</v>
       </c>
       <c r="O11">
         <v>1.100000023884847</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475269</v>
+        <v>0.6350852761475262</v>
       </c>
       <c r="Q11">
-        <v>60.0000009415922</v>
+        <v>60.00000094159225</v>
       </c>
       <c r="R11">
         <v>-89.99999999999565</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907779</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,16 +11844,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609202</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477673</v>
+        <v>0.6350852917477668</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854828</v>
+        <v>60.00000078854831</v>
       </c>
       <c r="R12">
         <v>-89.99999999999574</v>
@@ -11906,19 +11906,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609201</v>
       </c>
       <c r="O13">
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477675</v>
+        <v>0.635085291747767</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854826</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
         <v>120.0000012591527</v>
@@ -11968,16 +11968,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846022</v>
+        <v>0.6350853339846023</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339504</v>
+        <v>0.6350852901339494</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438021</v>
+        <v>60.00000080438032</v>
       </c>
       <c r="R14">
         <v>-89.99999999999575</v>
@@ -12030,16 +12030,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337226</v>
+        <v>0.6350853359337228</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580714</v>
+        <v>0.6350852890580707</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493512</v>
       </c>
       <c r="R15">
         <v>-89.99999999999574</v>
@@ -12092,16 +12092,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863596</v>
+        <v>0.6350853300863598</v>
       </c>
       <c r="O16">
         <v>1.100000023884845</v>
       </c>
       <c r="P16">
-        <v>0.635085292285707</v>
+        <v>0.6350852922857065</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327087</v>
+        <v>60.00000078327089</v>
       </c>
       <c r="R16">
         <v>-89.99999999999574</v>
@@ -12154,16 +12154,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863596</v>
+        <v>0.6350853300863598</v>
       </c>
       <c r="O17">
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857071</v>
+        <v>0.6350852922857065</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327086</v>
+        <v>60.00000078327089</v>
       </c>
       <c r="R17">
         <v>-89.99999999999574</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574049</v>
+        <v>0.6350853388574051</v>
       </c>
       <c r="O18">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442541</v>
+        <v>0.6350852874442527</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076702</v>
+        <v>60.00000083076717</v>
       </c>
       <c r="R18">
         <v>-89.99999999999575</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471873</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556472</v>
+        <v>0.6350853427556474</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924969</v>
+        <v>0.6350852852924951</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187648</v>
+        <v>60.00000085187668</v>
       </c>
       <c r="R19">
         <v>-89.99999999999575</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412046</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793288</v>
+        <v>0.6350853456793293</v>
       </c>
       <c r="O20">
         <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786789</v>
+        <v>0.6350852836786766</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770856</v>
+        <v>60.00000086770883</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538897</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407371</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298594</v>
+        <v>60.00000087298621</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352219</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>29.9221296297744</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -13233,7 +13233,7 @@
         <v>29.92212961775842</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246566729963</v>
@@ -13292,10 +13292,10 @@
         <v>1.096496877775077</v>
       </c>
       <c r="Q14">
-        <v>29.92212962001141</v>
+        <v>29.92212962001142</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566747267</v>
@@ -13354,10 +13354,10 @@
         <v>1.096496877754745</v>
       </c>
       <c r="Q15">
-        <v>29.92212962151341</v>
+        <v>29.92212962151342</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S15">
         <v>149.5246566758803</v>
@@ -13540,7 +13540,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376642</v>
+        <v>29.92212962376641</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -13667,7 +13667,7 @@
         <v>29.9221296290234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246566816485</v>
@@ -13729,7 +13729,7 @@
         <v>29.9221296297744</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14335,7 +14335,7 @@
         <v>0.01094540887219868</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
         <v>0.01094540888868895</v>
@@ -14421,7 +14421,7 @@
         <v>1.096496877823413</v>
       </c>
       <c r="Q3">
-        <v>29.922129616241</v>
+        <v>29.92212961624099</v>
       </c>
       <c r="R3">
         <v>-89.99999999999635</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496877498112</v>
       </c>
       <c r="Q11">
-        <v>29.92212964027296</v>
+        <v>29.92212964027295</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14976,13 +14976,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.5246566733128</v>
@@ -15041,10 +15041,10 @@
         <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246566733128</v>
@@ -15475,10 +15475,10 @@
         <v>1.096496877640431</v>
       </c>
       <c r="Q20">
-        <v>29.92212962975898</v>
+        <v>29.92212962975897</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.524656681965</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120193</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,10 +15647,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -15671,10 +15671,10 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.577350269169092</v>
+        <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.0000000007539</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15683,7 +15683,7 @@
         <v>120.0000000016444</v>
       </c>
       <c r="T2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -15727,22 +15727,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857102</v>
+        <v>0.5773502855857104</v>
       </c>
       <c r="O3">
         <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
         <v>60.00000076610994</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S3">
-        <v>120.0000010262631</v>
+        <v>120.0000010262632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881824</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q4">
         <v>60.00000027007628</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S4">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,13 +15851,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139776</v>
       </c>
       <c r="O5">
         <v>0.9999999999962959</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
@@ -15913,13 +15913,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252842</v>
+        <v>0.5773503080252844</v>
       </c>
       <c r="O6">
         <v>0.9999999999962959</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673668</v>
       </c>
       <c r="Q6">
         <v>60.00000021786207</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680399</v>
+        <v>0.5773503133680401</v>
       </c>
       <c r="O7">
         <v>0.9999999999962959</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.00000008732689</v>
       </c>
       <c r="R7">
         <v>-89.99999999999591</v>
       </c>
       <c r="S7">
-        <v>120.0000037533701</v>
+        <v>120.0000037533702</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,19 +16037,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.577350314436591</v>
+        <v>0.5773503144365912</v>
       </c>
       <c r="O8">
         <v>0.9999999999962957</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.5773502460286751</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121983</v>
+        <v>60.00000006121984</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736933</v>
+        <v>0.5773503165736937</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157777</v>
       </c>
       <c r="Q9">
         <v>60.00000000900576</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -16161,13 +16161,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.577350318710796</v>
       </c>
       <c r="O10">
         <v>0.9999999999962956</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.5773502448028804</v>
       </c>
       <c r="Q10">
         <v>59.99999995679168</v>
@@ -16223,13 +16223,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793468</v>
+        <v>0.5773503197793471</v>
       </c>
       <c r="O11">
         <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.5773502444964319</v>
       </c>
       <c r="Q11">
         <v>59.99999993068464</v>
@@ -16238,7 +16238,7 @@
         <v>-89.99999999999592</v>
       </c>
       <c r="S11">
-        <v>120.0000043827025</v>
+        <v>120.0000043827026</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913637</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778882</v>
+        <v>60.00000068778881</v>
       </c>
       <c r="R12">
         <v>-89.99999999999585</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,19 +16347,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913639</v>
+        <v>0.5773502887913642</v>
       </c>
       <c r="O13">
         <v>0.9999999999962961</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778881</v>
+        <v>60.00000068778882</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -16409,22 +16409,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.5773502919970176</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640961</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946774</v>
+        <v>60.00000060946771</v>
       </c>
       <c r="R14">
         <v>-89.99999999999586</v>
       </c>
       <c r="S14">
-        <v>120.0000016555955</v>
+        <v>120.0000016555956</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -16471,13 +16471,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341194</v>
+        <v>0.5773502941341196</v>
       </c>
       <c r="O15">
         <v>0.9999999999962961</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.577350251851199</v>
       </c>
       <c r="Q15">
         <v>60.00000055725361</v>
@@ -16533,22 +16533,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228128</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
         <v>0.577350253689891</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S16">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -16595,22 +16595,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228127</v>
+        <v>0.5773502877228128</v>
       </c>
       <c r="O17">
         <v>0.9999999999962961</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
         <v>60.00000071389586</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S17">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397727</v>
+        <v>0.5773502973397734</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318528</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893256</v>
+        <v>60.00000047893253</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S18">
-        <v>120.0000021800391</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139772</v>
+        <v>0.5773503016139779</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060579</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450442</v>
+        <v>60.0000003745044</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196306</v>
+        <v>0.5773503048196313</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867114</v>
+        <v>0.5773502487867116</v>
       </c>
       <c r="Q20">
         <v>60.00000029618332</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S20">
-        <v>120.0000029142602</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881825</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q21">
         <v>60.00000027007628</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S21">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120193</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,10 +16962,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -16986,10 +16986,10 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.577350269169092</v>
+        <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.0000000007539</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -16998,7 +16998,7 @@
         <v>120.0000000016444</v>
       </c>
       <c r="T2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -17042,22 +17042,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857102</v>
+        <v>0.5773502855857104</v>
       </c>
       <c r="O3">
         <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
         <v>60.00000076610994</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S3">
-        <v>120.0000010262631</v>
+        <v>120.0000010262632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881824</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q4">
         <v>60.00000027007628</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S4">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,13 +17166,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139776</v>
       </c>
       <c r="O5">
         <v>0.9999999999962959</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
@@ -17228,13 +17228,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252842</v>
+        <v>0.5773503080252844</v>
       </c>
       <c r="O6">
         <v>0.9999999999962959</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673668</v>
       </c>
       <c r="Q6">
         <v>60.00000021786207</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680399</v>
+        <v>0.5773503133680401</v>
       </c>
       <c r="O7">
         <v>0.9999999999962959</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.00000008732689</v>
       </c>
       <c r="R7">
         <v>-89.99999999999591</v>
       </c>
       <c r="S7">
-        <v>120.0000037533701</v>
+        <v>120.0000037533702</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,19 +17352,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.577350314436591</v>
+        <v>0.5773503144365912</v>
       </c>
       <c r="O8">
         <v>0.9999999999962957</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.5773502460286751</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121983</v>
+        <v>60.00000006121984</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -17414,19 +17414,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736933</v>
+        <v>0.5773503165736937</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157777</v>
       </c>
       <c r="Q9">
         <v>60.00000000900576</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -17476,13 +17476,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.577350318710796</v>
       </c>
       <c r="O10">
         <v>0.9999999999962956</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.5773502448028804</v>
       </c>
       <c r="Q10">
         <v>59.99999995679168</v>
@@ -17538,13 +17538,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793468</v>
+        <v>0.5773503197793471</v>
       </c>
       <c r="O11">
         <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.5773502444964319</v>
       </c>
       <c r="Q11">
         <v>59.99999993068464</v>
@@ -17553,7 +17553,7 @@
         <v>-89.99999999999592</v>
       </c>
       <c r="S11">
-        <v>120.0000043827025</v>
+        <v>120.0000043827026</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913637</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778882</v>
+        <v>60.00000068778881</v>
       </c>
       <c r="R12">
         <v>-89.99999999999585</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,19 +17662,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913639</v>
+        <v>0.5773502887913642</v>
       </c>
       <c r="O13">
         <v>0.9999999999962961</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778881</v>
+        <v>60.00000068778882</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -17724,22 +17724,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.5773502919970176</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640961</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946774</v>
+        <v>60.00000060946771</v>
       </c>
       <c r="R14">
         <v>-89.99999999999586</v>
       </c>
       <c r="S14">
-        <v>120.0000016555955</v>
+        <v>120.0000016555956</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -17786,13 +17786,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341194</v>
+        <v>0.5773502941341196</v>
       </c>
       <c r="O15">
         <v>0.9999999999962961</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.577350251851199</v>
       </c>
       <c r="Q15">
         <v>60.00000055725361</v>
@@ -17848,22 +17848,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228128</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
         <v>0.577350253689891</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S16">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -17910,22 +17910,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228127</v>
+        <v>0.5773502877228128</v>
       </c>
       <c r="O17">
         <v>0.9999999999962961</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
         <v>60.00000071389586</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S17">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397727</v>
+        <v>0.5773502973397734</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318528</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893256</v>
+        <v>60.00000047893253</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S18">
-        <v>120.0000021800391</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139772</v>
+        <v>0.5773503016139779</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060579</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450442</v>
+        <v>60.0000003745044</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196306</v>
+        <v>0.5773503048196313</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867114</v>
+        <v>0.5773502487867116</v>
       </c>
       <c r="Q20">
         <v>60.00000029618332</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S20">
-        <v>120.0000029142602</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881825</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q21">
         <v>60.00000027007628</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S21">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18277,10 +18277,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -18363,7 +18363,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -18543,13 +18543,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -18729,13 +18729,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500486</v>
+        <v>0.9900480150500488</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731365</v>
+        <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
@@ -18918,7 +18918,7 @@
         <v>0.990048014763255</v>
       </c>
       <c r="O12">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P12">
         <v>0.9963798868868724</v>
@@ -19048,7 +19048,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -19107,7 +19107,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P15">
-        <v>0.9963798868457693</v>
+        <v>0.9963798868457695</v>
       </c>
       <c r="Q15">
         <v>29.91230408433825</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480149287129</v>
+        <v>0.990048014928713</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
@@ -19592,10 +19592,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -19678,7 +19678,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -19796,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -19858,13 +19858,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -20044,13 +20044,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500486</v>
+        <v>0.9900480150500488</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731365</v>
+        <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
@@ -20233,7 +20233,7 @@
         <v>0.990048014763255</v>
       </c>
       <c r="O12">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P12">
         <v>0.9963798868868724</v>
@@ -20363,7 +20363,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -20422,7 +20422,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P15">
-        <v>0.9963798868457693</v>
+        <v>0.9963798868457695</v>
       </c>
       <c r="Q15">
         <v>29.91230408433825</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480149287129</v>
+        <v>0.990048014928713</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
@@ -20895,7 +20895,7 @@
         <v>57.73503018874288</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20904,7 +20904,7 @@
         <v>333.3333522114187</v>
       </c>
       <c r="G2">
-        <v>333.3333522545259</v>
+        <v>333.3333522545258</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -20931,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608014</v>
       </c>
       <c r="Q2">
-        <v>4.228458211276003E-09</v>
+        <v>4.228458220759469E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20987,22 +20987,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085294097668</v>
+        <v>0.6350852940976673</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056293</v>
+        <v>0.6350853272056287</v>
       </c>
       <c r="Q3">
-        <v>9.908897703630627E-07</v>
+        <v>9.908897304104909E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,16 +21049,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768186</v>
+        <v>0.635085283876816</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.63508534572228</v>
+        <v>0.6350853457222777</v>
       </c>
       <c r="Q4">
-        <v>2.387471879046079E-06</v>
+        <v>2.387471804194025E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -21111,16 +21111,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285742</v>
+        <v>0.6350852860285736</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240362</v>
+        <v>0.635085341824036</v>
       </c>
       <c r="Q5">
-        <v>2.093454436649392E-06</v>
+        <v>2.093454408009539E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21173,16 +21173,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009366</v>
+        <v>0.635085282800936</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.635085347671399</v>
+        <v>0.6350853476713986</v>
       </c>
       <c r="Q6">
-        <v>2.534480320106092E-06</v>
+        <v>2.534480291366625E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112382</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442014</v>
+        <v>0.6350853525442012</v>
       </c>
       <c r="Q7">
-        <v>2.902001903347671E-06</v>
+        <v>2.902001868743666E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206213</v>
+        <v>-179.9999991206212</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,16 +21297,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732993</v>
+        <v>0.6350852795732986</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187619</v>
+        <v>0.6350853535187616</v>
       </c>
       <c r="Q8">
-        <v>2.975506220685522E-06</v>
+        <v>2.975506180288588E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,16 +21359,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974192</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678829</v>
+        <v>0.6350853554678827</v>
       </c>
       <c r="Q9">
-        <v>3.122514844006423E-06</v>
+        <v>3.122514809356511E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215399</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085357417004</v>
+        <v>0.6350853574170036</v>
       </c>
       <c r="Q10">
-        <v>3.269523467164331E-06</v>
+        <v>3.269523432486414E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942343</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,16 +21483,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768836003</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915644</v>
+        <v>0.6350853583915641</v>
       </c>
       <c r="Q11">
-        <v>3.343027784731438E-06</v>
+        <v>3.34302774426059E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,16 +21545,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838488</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293105</v>
       </c>
       <c r="Q12">
-        <v>1.211402720229386E-06</v>
+        <v>1.211402647164835E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838485</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293102</v>
       </c>
       <c r="Q13">
-        <v>1.211402669640932E-06</v>
+        <v>1.211402641215906E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,22 +21669,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700311</v>
+        <v>0.6350852908700299</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529926</v>
+        <v>0.6350853330529916</v>
       </c>
       <c r="Q14">
-        <v>1.431915668850397E-06</v>
+        <v>1.431915606941238E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261687</v>
+        <v>-179.9999992261686</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941514</v>
+        <v>0.6350852897941507</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021131</v>
+        <v>0.6350853350021127</v>
       </c>
       <c r="Q15">
-        <v>1.578924259829376E-06</v>
+        <v>1.578924225524213E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547504</v>
+        <v>0.6350853291547498</v>
       </c>
       <c r="Q16">
-        <v>1.137898405226263E-06</v>
+        <v>1.137898343737469E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217883</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547502</v>
+        <v>0.6350853291547498</v>
       </c>
       <c r="Q17">
-        <v>1.137898360420636E-06</v>
+        <v>1.137898326222886E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803341</v>
+        <v>0.6350852881803323</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257955</v>
+        <v>0.6350853379257942</v>
       </c>
       <c r="Q18">
-        <v>1.799437288116788E-06</v>
+        <v>1.799437197182287E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991997819</v>
+        <v>-179.9999991997818</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285764</v>
+        <v>0.6350852860285743</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240379</v>
+        <v>0.635085341824036</v>
       </c>
       <c r="Q19">
-        <v>2.093454593194453E-06</v>
+        <v>2.09345451512E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786723</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,16 +22041,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147582</v>
+        <v>0.6350852844147556</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477195</v>
+        <v>0.6350853447477172</v>
       </c>
       <c r="Q20">
-        <v>2.313967568198361E-06</v>
+        <v>2.313967494947774E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22103,16 +22103,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768186</v>
+        <v>0.6350852838768161</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.63508534572228</v>
+        <v>0.6350853457222777</v>
       </c>
       <c r="Q21">
-        <v>2.387471873263252E-06</v>
+        <v>2.38747180578539E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22207,16 +22207,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620923</v>
+        <v>57.73503019620922</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545257</v>
@@ -22225,13 +22225,13 @@
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442587551278E-09</v>
+        <v>4.228436678709074E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22302,22 +22302,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478037</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315721</v>
       </c>
       <c r="Q3">
-        <v>1.037873697159788E-06</v>
+        <v>1.037873698105483E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269534</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482238</v>
+        <v>0.6350853465482219</v>
       </c>
       <c r="Q4">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455849812998E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22432,16 +22432,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.63508534264998</v>
+        <v>0.6350853426499792</v>
       </c>
       <c r="Q5">
-        <v>2.1404383876735E-06</v>
+        <v>2.140438388424127E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22494,16 +22494,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973429</v>
+        <v>0.635085348497342</v>
       </c>
       <c r="Q6">
-        <v>2.581464277540806E-06</v>
+        <v>2.581464283997427E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701454</v>
+        <v>0.6350853533701444</v>
       </c>
       <c r="Q7">
-        <v>2.948985843957055E-06</v>
+        <v>2.948985867699125E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999990855258</v>
+        <v>-179.9999990855259</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234349</v>
+        <v>0.635085278823435</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447059</v>
+        <v>0.6350853543447051</v>
       </c>
       <c r="Q8">
-        <v>3.02249015561671E-06</v>
+        <v>3.022490179350954E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802484</v>
+        <v>-179.9999990802486</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22680,16 +22680,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.635085356293827</v>
+        <v>0.635085356293826</v>
       </c>
       <c r="Q9">
-        <v>3.169498779146869E-06</v>
+        <v>3.169498802853511E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696938</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22742,10 +22742,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429478</v>
+        <v>0.635085358242947</v>
       </c>
       <c r="Q10">
-        <v>3.316507402514037E-06</v>
+        <v>3.316507420416225E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22804,10 +22804,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175082</v>
+        <v>0.6350853592175074</v>
       </c>
       <c r="Q11">
-        <v>3.390011720185774E-06</v>
+        <v>3.390011743862963E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22866,16 +22866,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q12">
-        <v>1.258386640375912E-06</v>
+        <v>1.258386629121795E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339844</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q13">
-        <v>1.258386621995585E-06</v>
+        <v>1.258386628694653E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201671</v>
+        <v>0.6350852901201668</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789353</v>
       </c>
       <c r="Q14">
-        <v>1.478899607563633E-06</v>
+        <v>1.478899631407073E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999991910732</v>
+        <v>-179.9999991910733</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23052,16 +23052,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853358280568</v>
+        <v>0.635085335828056</v>
       </c>
       <c r="Q15">
-        <v>1.625908198555419E-06</v>
+        <v>1.625908205179506E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999991805185</v>
+        <v>-179.9999991805186</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719245</v>
+        <v>0.6350852922719241</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806931</v>
       </c>
       <c r="Q16">
-        <v>1.184882331050985E-06</v>
+        <v>1.184882308239042E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.6350852922719241</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806931</v>
       </c>
       <c r="Q17">
-        <v>1.184882318453485E-06</v>
+        <v>1.184882319377553E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.63508528743047</v>
+        <v>0.6350852874304694</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517393</v>
+        <v>0.6350853387517381</v>
       </c>
       <c r="Q18">
-        <v>1.846421215787521E-06</v>
+        <v>1.846421235106618E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,22 +23294,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787124</v>
+        <v>0.6350852852787116</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499816</v>
+        <v>0.63508534264998</v>
       </c>
       <c r="Q19">
-        <v>2.140438521283705E-06</v>
+        <v>2.140438540016551E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085283664894</v>
+        <v>0.6350852836648929</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736634</v>
+        <v>0.6350853455736613</v>
       </c>
       <c r="Q20">
-        <v>2.360951508167158E-06</v>
+        <v>2.360951533485591E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991277448</v>
+        <v>-179.9999991277449</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269533</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482238</v>
+        <v>0.6350853465482219</v>
       </c>
       <c r="Q21">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455850212941E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.096496877804266</v>
+        <v>1.096496877804267</v>
       </c>
       <c r="O13">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300136</v>
+        <v>29.52465667300135</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24435,7 +24435,7 @@
         <v>29.52465667242454</v>
       </c>
       <c r="R16">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S16">
         <v>149.922129617002</v>
@@ -24556,7 +24556,7 @@
         <v>1.090352556961868</v>
       </c>
       <c r="Q18">
-        <v>29.52465667761588</v>
+        <v>29.52465667761587</v>
       </c>
       <c r="R18">
         <v>-90.55768083994768</v>
@@ -24677,10 +24677,10 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165357</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24855,13 +24855,13 @@
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -24941,7 +24941,7 @@
         <v>1.090352556910543</v>
       </c>
       <c r="Q3">
-        <v>29.52465667158744</v>
+        <v>29.52465667158743</v>
       </c>
       <c r="R3">
         <v>-90.55768085359402</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25254,7 +25254,7 @@
         <v>29.52465668716144</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750685</v>
+        <v>-90.55768081750686</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -26152,10 +26152,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -26164,7 +26164,7 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -26179,7 +26179,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -26194,13 +26194,13 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534692453373449E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
       <c r="T2">
         <v>46.18802315331506</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393526</v>
+        <v>0.5773502543393524</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594388</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.029154453507359E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,22 +26309,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040463589964E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426232</v>
+        <v>0.5773502497426229</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485407656354E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039316</v>
+        <v>0.5773502479039314</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.5773503079990105</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.23181779091594E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -26495,16 +26495,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716889</v>
+        <v>0.5773502463716887</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417657</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261444792229E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652403</v>
+        <v>0.5773502460652402</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103168</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150169794727E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355377</v>
+        <v>-179.9999999355378</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,16 +26619,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.577350245452343</v>
+        <v>0.5773502454523429</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474189</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.07092764669771E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845211</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705124075381E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600196</v>
+        <v>179.9999999600195</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.5773503197530723</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593864573174E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -26811,16 +26811,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650921</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820648264164E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26867,16 +26867,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200066</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650922</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820655422909E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006604</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707453</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486891510312E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.5773502518877633</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264286412652E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27059,10 +27059,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965411</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.238931921707131E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.577350253726455</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965411</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.238931928865877E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,22 +27177,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973135005</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930586219315E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178253</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27239,22 +27239,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877047</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.602485534315717E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -27301,22 +27301,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232768</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933564</v>
+        <v>0.5773503047933578</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151728947451E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -27363,22 +27363,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040447252692E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27963,10 +27963,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -27975,7 +27975,7 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -27990,7 +27990,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -28005,13 +28005,13 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534692453373449E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
       <c r="T2">
         <v>46.18802315331506</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393526</v>
+        <v>0.5773502543393524</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594388</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.029154453507359E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040463589964E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426232</v>
+        <v>0.5773502497426229</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485407656354E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -28244,16 +28244,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039316</v>
+        <v>0.5773502479039314</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.5773503079990105</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.23181779091594E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -28306,16 +28306,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716889</v>
+        <v>0.5773502463716887</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417657</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261444792229E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652403</v>
+        <v>0.5773502460652402</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103168</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150169794727E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355377</v>
+        <v>-179.9999999355378</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,16 +28430,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.577350245452343</v>
+        <v>0.5773502454523429</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474189</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.07092764669771E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845211</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705124075381E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600196</v>
+        <v>179.9999999600195</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,16 +28554,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.5773503197530723</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593864573174E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -28622,16 +28622,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650921</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820648264164E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28678,16 +28678,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200066</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650922</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820655422909E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006604</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707453</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486891510312E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.5773502518877633</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264286412652E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28870,10 +28870,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965411</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.238931921707131E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.577350253726455</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965411</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.238931928865877E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,22 +28988,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973135005</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930586219315E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178253</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -29050,22 +29050,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877047</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.602485534315717E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -29112,22 +29112,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232768</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933564</v>
+        <v>0.5773503047933578</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151728947451E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -29174,22 +29174,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040447252692E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -29435,7 +29435,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -29444,7 +29444,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29931,10 +29931,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877105</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
         <v>0.990048014764085</v>
@@ -29943,7 +29943,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
         <v>149.912304079789</v>
@@ -30005,7 +30005,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S13">
         <v>149.9123040797891</v>
@@ -30058,13 +30058,13 @@
         <v>0.9963798868630487</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -30182,7 +30182,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -30303,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -30368,13 +30368,13 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -30498,7 +30498,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -30620,7 +30620,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -30759,7 +30759,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -31246,10 +31246,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877105</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
         <v>0.990048014764085</v>
@@ -31258,7 +31258,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
         <v>149.912304079789</v>
@@ -31320,7 +31320,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S13">
         <v>149.9123040797891</v>
@@ -31373,13 +31373,13 @@
         <v>0.9963798868630487</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -31497,7 +31497,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -31683,13 +31683,13 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -31813,7 +31813,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -34385,19 +34385,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507352</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="D2">
-        <v>50.00000283507352</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="G2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -34418,16 +34418,16 @@
         <v>0.1094540870674506</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.694071102708296E-11</v>
+        <v>-8.693298629158136E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34483,10 +34483,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293727</v>
       </c>
       <c r="Q3">
-        <v>8.313215066396879E-08</v>
+        <v>8.313213231801673E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656294</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q4">
-        <v>5.152361523965036E-07</v>
+        <v>5.15236073189953E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906295</v>
+        <v>0.9526279368906294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731215</v>
       </c>
       <c r="Q5">
-        <v>4.242667901750028E-07</v>
+        <v>4.242667755285874E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,7 +34654,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531288</v>
+        <v>0.9526279323531287</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -34663,13 +34663,13 @@
         <v>0.952627997210621</v>
       </c>
       <c r="Q6">
-        <v>5.607206527811399E-07</v>
+        <v>5.607206342181922E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718781</v>
+        <v>0.9526279285718779</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918707</v>
       </c>
       <c r="Q7">
-        <v>6.744322008184266E-07</v>
+        <v>6.744321822051817E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481206</v>
+        <v>0.9526280017481208</v>
       </c>
       <c r="Q8">
-        <v>6.971745110578895E-07</v>
+        <v>6.971744885831994E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34831,7 +34831,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031278</v>
+        <v>0.9526279263031273</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -34840,13 +34840,13 @@
         <v>0.9526280032606206</v>
       </c>
       <c r="Q9">
-        <v>7.426591276834043E-07</v>
+        <v>7.426591090418971E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,7 +34890,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906274</v>
+        <v>0.9526279247906272</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -34899,13 +34899,13 @@
         <v>0.9526280047731207</v>
       </c>
       <c r="Q10">
-        <v>7.881437416254983E-07</v>
+        <v>7.881437229667465E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343772</v>
+        <v>0.952627924034377</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -34958,13 +34958,13 @@
         <v>0.9526280055293707</v>
       </c>
       <c r="Q11">
-        <v>8.108860461056119E-07</v>
+        <v>8.108860274406326E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991891049</v>
+        <v>179.999999189105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -35008,22 +35008,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656311</v>
+        <v>0.9526279459656307</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981227</v>
+        <v>0.9526279835981226</v>
       </c>
       <c r="Q12">
-        <v>1.513590720551103E-07</v>
+        <v>1.513590516488137E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -35073,16 +35073,16 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q13">
-        <v>1.513590563005375E-07</v>
+        <v>1.513590417863311E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -35126,7 +35126,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627943696881</v>
+        <v>0.9526279436968805</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -35135,7 +35135,7 @@
         <v>0.9526279858668723</v>
       </c>
       <c r="Q14">
-        <v>2.19586030486346E-07</v>
+        <v>2.195859851452727E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843805</v>
+        <v>0.9526279421843803</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -35194,13 +35194,13 @@
         <v>0.9526279873793718</v>
       </c>
       <c r="Q15">
-        <v>2.650706274100409E-07</v>
+        <v>2.650706089807398E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,22 +35244,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279467218812</v>
+        <v>0.9526279467218809</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418727</v>
+        <v>0.9526279828418726</v>
       </c>
       <c r="Q16">
-        <v>1.286167647669185E-07</v>
+        <v>1.286167405116314E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -35309,16 +35309,16 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418724</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286167490123459E-07</v>
+        <v>1.28616730649149E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -35362,16 +35362,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156306</v>
+        <v>0.9526279399156301</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.952627989648122</v>
+        <v>0.9526279896481219</v>
       </c>
       <c r="Q18">
-        <v>3.332976152808618E-07</v>
+        <v>3.332975508034586E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.9526279368906297</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731218</v>
+        <v>0.9526279926731217</v>
       </c>
       <c r="Q19">
-        <v>4.242668877868737E-07</v>
+        <v>4.242668189073966E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,16 +35480,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.9526279346218796</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418718</v>
+        <v>0.9526279949418716</v>
       </c>
       <c r="Q20">
-        <v>4.924938463011247E-07</v>
+        <v>4.924937707972788E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656294</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q21">
-        <v>5.152361523965036E-07</v>
+        <v>5.152360845968662E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
